--- a/工作流/PrlDZ_Sos_Sos审批流程设计.xlsx
+++ b/工作流/PrlDZ_Sos_Sos审批流程设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15870" yWindow="0" windowWidth="18150" windowHeight="12390" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="19380" yWindow="0" windowWidth="18150" windowHeight="12390" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="283">
   <si>
     <t>标题信息</t>
   </si>
@@ -998,10 +998,6 @@
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
-    <t>JArea</t>
-    <phoneticPr fontId="33" type="noConversion"/>
-  </si>
-  <si>
     <t>fmr</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
@@ -1098,6 +1094,34 @@
   </si>
   <si>
     <t>aType</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>jArea</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>月租金</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>fmrM</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>fmrMSum1</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>fmrMSum2</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>fmrY</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度预算</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
@@ -1939,6 +1963,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1953,21 +1992,6 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3265,10 +3289,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3535,7 +3559,7 @@
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B21" s="84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>59</v>
@@ -3544,15 +3568,15 @@
         <v>67</v>
       </c>
       <c r="E21" s="86" t="s">
+        <v>262</v>
+      </c>
+      <c r="F21" s="87" t="s">
         <v>263</v>
-      </c>
-      <c r="F21" s="87" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B22" s="84" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C22" s="42" t="s">
         <v>59</v>
@@ -3561,22 +3585,22 @@
         <v>67</v>
       </c>
       <c r="E22" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="87" t="s">
         <v>266</v>
-      </c>
-      <c r="F22" s="87" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="85"/>
       <c r="B23" s="85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C23" s="85" t="s">
         <v>245</v>
       </c>
       <c r="D23" s="85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E23" s="86" t="s">
         <v>246</v>
@@ -3586,13 +3610,13 @@
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="85"/>
       <c r="B24" s="88" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C24" s="88" t="s">
         <v>245</v>
       </c>
       <c r="D24" s="85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E24" s="86" t="s">
         <v>247</v>
@@ -3602,13 +3626,13 @@
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="85"/>
       <c r="B25" s="85" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C25" s="85" t="s">
         <v>245</v>
       </c>
       <c r="D25" s="85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E25" s="86" t="s">
         <v>248</v>
@@ -3618,154 +3642,158 @@
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="85"/>
       <c r="B26" s="85" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C26" s="85" t="s">
         <v>245</v>
       </c>
       <c r="D26" s="85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E26" s="86" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F26" s="87"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="85"/>
-      <c r="B27" s="88" t="s">
-        <v>272</v>
-      </c>
-      <c r="C27" s="88" t="s">
+      <c r="B27" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" s="85" t="s">
         <v>245</v>
       </c>
       <c r="D27" s="85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E27" s="86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F27" s="87"/>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="85"/>
-      <c r="B28" s="85" t="s">
-        <v>273</v>
-      </c>
-      <c r="C28" s="85" t="s">
+      <c r="B28" s="88" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" s="88" t="s">
         <v>245</v>
       </c>
       <c r="D28" s="85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E28" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" s="87"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="85"/>
+      <c r="B29" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" s="85" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="E29" s="86" t="s">
         <v>248</v>
       </c>
-      <c r="F28" s="87"/>
-    </row>
-    <row r="29" spans="1:6" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42" t="s">
+      <c r="F29" s="87"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="85"/>
+      <c r="B30" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="C30" s="85" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="E30" s="86" t="s">
+        <v>248</v>
+      </c>
+      <c r="F30" s="87"/>
+    </row>
+    <row r="31" spans="1:6" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C31" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D31" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E31" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="44"/>
-    </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B30" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="44"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="50"/>
+      <c r="F31" s="44"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B32" s="42" t="s">
-        <v>93</v>
+        <v>232</v>
       </c>
       <c r="D32" s="43"/>
       <c r="E32" s="42"/>
       <c r="F32" s="44"/>
     </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="42" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="50"/>
+      <c r="B33" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="50"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B34" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="43"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="44"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="44"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="45" t="s">
+      <c r="D35" s="43"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="44"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46" t="s">
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="45"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="45" t="s">
+      <c r="F37" s="45"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="45"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B37" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="44"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="45"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B39" s="42" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C39" s="42" t="s">
         <v>59</v>
@@ -3774,13 +3802,13 @@
         <v>60</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F39" s="44"/>
     </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B40" s="42" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C40" s="42" t="s">
         <v>59</v>
@@ -3789,344 +3817,353 @@
         <v>60</v>
       </c>
       <c r="E40" s="48"/>
-      <c r="F40" s="44"/>
+      <c r="F40" s="48"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B41" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="42"/>
+      <c r="B41" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>65</v>
+      </c>
       <c r="F41" s="44"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B42" s="84" t="s">
-        <v>275</v>
+      <c r="B42" s="42" t="s">
+        <v>95</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="D42" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="42"/>
+        <v>59</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="48"/>
       <c r="F42" s="44"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B43" s="84" t="s">
-        <v>276</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="D43" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="F43" s="87" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="85"/>
-      <c r="B44" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="43"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="44"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B44" s="84" t="s">
         <v>274</v>
       </c>
-      <c r="C44" s="85" t="s">
-        <v>79</v>
+      <c r="C44" s="42" t="s">
+        <v>258</v>
       </c>
       <c r="D44" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="86" t="s">
-        <v>251</v>
-      </c>
-      <c r="F44" s="85"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="85"/>
-      <c r="B45" s="85" t="s">
-        <v>252</v>
-      </c>
-      <c r="C45" s="85" t="s">
-        <v>79</v>
+      <c r="E44" s="42"/>
+      <c r="F44" s="44"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B45" s="84" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>258</v>
       </c>
       <c r="D45" s="85" t="s">
-        <v>258</v>
-      </c>
-      <c r="E45" s="86" t="s">
-        <v>244</v>
-      </c>
-      <c r="F45" s="86"/>
+        <v>67</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="F45" s="87" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="85"/>
       <c r="B46" s="85" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C46" s="85" t="s">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="D46" s="85" t="s">
         <v>67</v>
       </c>
       <c r="E46" s="86" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F46" s="85"/>
     </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="85"/>
       <c r="B47" s="85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C47" s="85" t="s">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="D47" s="85" t="s">
         <v>257</v>
       </c>
       <c r="E47" s="86" t="s">
-        <v>246</v>
-      </c>
-      <c r="F47" s="87"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+      <c r="F47" s="86"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="85"/>
-      <c r="B48" s="88" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="88" t="s">
-        <v>245</v>
+      <c r="B48" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="85" t="s">
+        <v>249</v>
       </c>
       <c r="D48" s="85" t="s">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="E48" s="86" t="s">
-        <v>247</v>
-      </c>
-      <c r="F48" s="87"/>
+        <v>250</v>
+      </c>
+      <c r="F48" s="85"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="85"/>
       <c r="B49" s="85" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C49" s="85" t="s">
         <v>245</v>
       </c>
       <c r="D49" s="85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E49" s="86" t="s">
+        <v>246</v>
+      </c>
+      <c r="F49" s="87"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="85"/>
+      <c r="B50" s="88" t="s">
+        <v>276</v>
+      </c>
+      <c r="C50" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="D50" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="E50" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="F50" s="87"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="85"/>
+      <c r="B51" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" s="85" t="s">
+        <v>245</v>
+      </c>
+      <c r="D51" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="E51" s="86" t="s">
         <v>248</v>
       </c>
-      <c r="F49" s="87"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B50" s="42" t="s">
+      <c r="F51" s="87"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="85"/>
+      <c r="B52" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="C52" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="D52" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="E52" s="86" t="s">
+        <v>277</v>
+      </c>
+      <c r="F52" s="87"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A53" s="85"/>
+      <c r="B53" s="88" t="s">
+        <v>281</v>
+      </c>
+      <c r="C53" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="E53" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="F53" s="87"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B54" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="44"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B51" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="44"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D52" s="43"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="44"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" s="45"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="45"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="44"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B55" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="43"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="44"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D56" s="43"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="44"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="45"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="45"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B59" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C59" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="42" t="s">
+      <c r="D59" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="48" t="s">
+      <c r="E59" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="44"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B56" s="42" t="s">
+      <c r="F59" s="44"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B60" s="42" t="s">
         <v>62</v>
-      </c>
-      <c r="C56" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B57" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E57" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="F57" s="44"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B58" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E58" s="48"/>
-      <c r="F58" s="44"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B59" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="43"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="44"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B60" s="42" t="s">
-        <v>99</v>
       </c>
       <c r="C60" s="42" t="s">
         <v>59</v>
       </c>
       <c r="D60" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="F60" s="44"/>
+        <v>60</v>
+      </c>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B61" s="42" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="42"/>
+        <v>60</v>
+      </c>
+      <c r="E61" s="48" t="s">
+        <v>65</v>
+      </c>
       <c r="F61" s="44"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B62" s="42" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D62" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="42"/>
+        <v>60</v>
+      </c>
+      <c r="E62" s="48"/>
       <c r="F62" s="44"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B63" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="42" t="s">
-        <v>67</v>
-      </c>
+      <c r="B63" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="43"/>
       <c r="E63" s="42"/>
       <c r="F63" s="44"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B64" s="42" t="s">
-        <v>228</v>
+        <v>99</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D64" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="86" t="s">
-        <v>229</v>
-      </c>
-      <c r="F64" s="54"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E64" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F64" s="44"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B65" s="42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D65" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E65" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="F65" s="54"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="44"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B66" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="D66" s="43"/>
+      <c r="B66" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>67</v>
+      </c>
       <c r="E66" s="42"/>
       <c r="F66" s="44"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B67" s="42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C67" s="42" t="s">
         <v>79</v>
@@ -4134,44 +4171,42 @@
       <c r="D67" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E67" s="48" t="s">
-        <v>107</v>
-      </c>
+      <c r="E67" s="42"/>
       <c r="F67" s="44"/>
     </row>
-    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B68" s="42" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D68" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E68" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F68" s="44"/>
-    </row>
-    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E68" s="86" t="s">
+        <v>229</v>
+      </c>
+      <c r="F68" s="54"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B69" s="42" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D69" s="42" t="s">
         <v>67</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="F69" s="44"/>
+        <v>105</v>
+      </c>
+      <c r="F69" s="54"/>
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B70" s="42" t="s">
-        <v>237</v>
+      <c r="B70" s="84" t="s">
+        <v>73</v>
       </c>
       <c r="D70" s="43"/>
       <c r="E70" s="42"/>
@@ -4179,148 +4214,148 @@
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B71" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="F71" s="44"/>
+    </row>
+    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B72" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F72" s="44"/>
+    </row>
+    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B73" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" s="44"/>
+    </row>
+    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B74" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D74" s="43"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="44"/>
+    </row>
+    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B75" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="D71" s="43"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="44"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="45" t="s">
+      <c r="D75" s="43"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="44"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="46" t="s">
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="F74" s="45"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="45" t="s">
+      <c r="F78" s="45"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="45"/>
-    </row>
-    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B76" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C76" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D76" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E76" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="F76" s="44"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B77" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C77" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D77" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
-    </row>
-    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B78" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D78" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E78" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="F78" s="44"/>
-    </row>
-    <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B79" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="C79" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D79" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E79" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="F79" s="44"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="45"/>
     </row>
     <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B80" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D80" s="43"/>
-      <c r="E80" s="42"/>
+        <v>58</v>
+      </c>
+      <c r="C80" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" s="48" t="s">
+        <v>61</v>
+      </c>
       <c r="F80" s="44"/>
     </row>
-    <row r="81" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B81" s="42" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E81" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="F81" s="44"/>
+        <v>60</v>
+      </c>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
     </row>
     <row r="82" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B82" s="42" t="s">
-        <v>218</v>
+        <v>64</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E82" s="48" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="F82" s="44"/>
     </row>
     <row r="83" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B83" s="42" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E83" s="48" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F83" s="44"/>
     </row>
     <row r="84" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B84" s="42" t="s">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="D84" s="43"/>
       <c r="E84" s="42"/>
@@ -4328,11 +4363,64 @@
     </row>
     <row r="85" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B85" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C85" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E85" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="F85" s="44"/>
+    </row>
+    <row r="86" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B86" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E86" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="F86" s="44"/>
+    </row>
+    <row r="87" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B87" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E87" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F87" s="44"/>
+    </row>
+    <row r="88" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B88" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="D88" s="43"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="44"/>
+    </row>
+    <row r="89" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B89" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="D85" s="43"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="44"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="33" type="noConversion"/>
@@ -4430,17 +4518,17 @@
       <c r="H4" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="95" t="s">
+      <c r="I4" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="99" t="s">
+      <c r="J4" s="100"/>
+      <c r="K4" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="13" t="s">
@@ -4452,15 +4540,15 @@
       <c r="H5" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="I5" s="95" t="s">
+      <c r="I5" s="100" t="s">
         <v>135</v>
       </c>
-      <c r="J5" s="95"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" s="13"/>
@@ -4470,15 +4558,15 @@
       <c r="H6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="95" t="s">
+      <c r="I6" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" s="13" t="s">
@@ -4509,19 +4597,19 @@
       <c r="H9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="96" t="s">
+      <c r="I9" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
       <c r="L9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="98" t="s">
+      <c r="M9" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" s="13" t="s">
@@ -4530,18 +4618,18 @@
       <c r="C10" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="H10" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">
@@ -4550,14 +4638,14 @@
       <c r="C11" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="102"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" s="13" t="s">
@@ -4566,14 +4654,14 @@
       <c r="C12" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
@@ -4582,38 +4670,38 @@
       <c r="C13" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="102" t="s">
+      <c r="H13" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H14" s="102"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H15" s="102"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
       <c r="K15" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
@@ -4798,12 +4886,12 @@
       <c r="K24" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="L24" s="100" t="s">
+      <c r="L24" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B25" s="13" t="s">
@@ -4824,12 +4912,12 @@
       <c r="K25" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="L25" s="95" t="s">
+      <c r="L25" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B26" s="13"/>
@@ -4848,12 +4936,12 @@
       <c r="K26" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="L26" s="95" t="s">
+      <c r="L26" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
     </row>
     <row r="28" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
       <c r="H28" s="20" t="s">
@@ -4877,19 +4965,19 @@
       <c r="H29" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="96" t="s">
+      <c r="I29" s="101" t="s">
         <v>187</v>
       </c>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
       <c r="L29" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="96" t="s">
+      <c r="M29" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29"/>
@@ -5133,23 +5221,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="K4:O6"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M29:O29"/>
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="I10:O12"/>
     <mergeCell ref="I13:K14"/>
     <mergeCell ref="L13:O15"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="K4:O6"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
